--- a/biology/Médecine/Centre_hospitalier_d'Angoulême/Centre_hospitalier_d'Angoulême.xlsx
+++ b/biology/Médecine/Centre_hospitalier_d'Angoulême/Centre_hospitalier_d'Angoulême.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_d%27Angoul%C3%AAme</t>
+          <t>Centre_hospitalier_d'Angoulême</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Centre hospitalier d'Angoulême est un des hôpitaux de la ville d'Angoulême situé dans la commune de Saint-Michel, en France. Il compte une trentaine de services. Ce centre hospitalier (CH), le plus important du département de la Charente et l'un des plus importants de sa région.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_d%27Angoul%C3%AAme</t>
+          <t>Centre_hospitalier_d'Angoulême</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La construction de l'hôpital d'Angoulême à Girac, commune de Saint-Michel, s'achève en 1936. Ce n'est qu'après la Seconde Guerre mondiale que l'hôpital se vit définitivement affecté aux services de médecine, chirurgie… Seuls, les services de maternité, ORL, OPH, isolement et quartier militaire demeuraient provisoirement à l'ancien hôpital situé à Beaulieu (sur le Plateau d'Angoulême), transformé pour le reste de sa capacité en hospice-maison de retraite[1].
-En juin 1980, ainsi que dans les années 2003-2007, le Centre hospitalier d'Angoulême s'agrandit. Aujourd'hui, il se compose de plusieurs bâtiments dont un hall nord et un hall sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La construction de l'hôpital d'Angoulême à Girac, commune de Saint-Michel, s'achève en 1936. Ce n'est qu'après la Seconde Guerre mondiale que l'hôpital se vit définitivement affecté aux services de médecine, chirurgie… Seuls, les services de maternité, ORL, OPH, isolement et quartier militaire demeuraient provisoirement à l'ancien hôpital situé à Beaulieu (sur le Plateau d'Angoulême), transformé pour le reste de sa capacité en hospice-maison de retraite.
+En juin 1980, ainsi que dans les années 2003-2007, le Centre hospitalier d'Angoulême s'agrandit. Aujourd'hui, il se compose de plusieurs bâtiments dont un hall nord et un hall sud.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_d%27Angoul%C3%AAme</t>
+          <t>Centre_hospitalier_d'Angoulême</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les services sont répartis en plusieurs pôles cliniques et médicotechniques[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les services sont répartis en plusieurs pôles cliniques et médicotechniques :
 Pôle ABC (Anesthésie-Bloc-Chirurgie)
 Chirurgie ambulatoire
 Chirurgie 1 (Viscérale-Urologique)
@@ -586,7 +602,7 @@
 Réanimation
 UHCD
 Unité de soins continus
-L'hôpital comprend 1 147 lits, dont la moitié en EHPAD, et a réalisé en 2017 38 400 entrées en hospitalisation, et 889 en soins de suite et de réadaptation[2]. Il compte en 2020 18 lits de réanimation[3].
+L'hôpital comprend 1 147 lits, dont la moitié en EHPAD, et a réalisé en 2017 38 400 entrées en hospitalisation, et 889 en soins de suite et de réadaptation. Il compte en 2020 18 lits de réanimation.
 </t>
         </is>
       </c>
@@ -597,7 +613,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_d%27Angoul%C3%AAme</t>
+          <t>Centre_hospitalier_d'Angoulême</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -615,7 +631,9 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital est desservi par la rocade d'Angoulême (rocade est et RN 10), ainsi que par les bus de réseau Möbius (ligne BHNS A, ligne 7, ligne 8 et la ligne 22).
 </t>
